--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ndp-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ndp-Fzd4.xlsx
@@ -540,40 +540,40 @@
         <v>0.194402</v>
       </c>
       <c r="I2">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="J2">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N2">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q2">
-        <v>1.452642376726667</v>
+        <v>1.719299841688</v>
       </c>
       <c r="R2">
-        <v>13.07378139054</v>
+        <v>15.473698575192</v>
       </c>
       <c r="S2">
-        <v>0.108356558384032</v>
+        <v>0.2041432132565579</v>
       </c>
       <c r="T2">
-        <v>0.108356558384032</v>
+        <v>0.2041432132565579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.194402</v>
       </c>
       <c r="I3">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="J3">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.345671</v>
       </c>
       <c r="O3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q3">
         <v>1.087477681526889</v>
       </c>
       <c r="R3">
-        <v>9.787299133742</v>
+        <v>9.787299133741998</v>
       </c>
       <c r="S3">
-        <v>0.08111792742493584</v>
+        <v>0.1291230202369653</v>
       </c>
       <c r="T3">
-        <v>0.08111792742493588</v>
+        <v>0.1291230202369653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.194402</v>
       </c>
       <c r="I4">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="J4">
-        <v>0.2716754685445248</v>
+        <v>0.5154172875118646</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N4">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q4">
-        <v>1.101997264503778</v>
+        <v>1.534081262566666</v>
       </c>
       <c r="R4">
-        <v>9.917975380533999</v>
+        <v>13.8067313631</v>
       </c>
       <c r="S4">
-        <v>0.08220098273555693</v>
+        <v>0.1821510540183413</v>
       </c>
       <c r="T4">
-        <v>0.08220098273555694</v>
+        <v>0.1821510540183413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1737216666666667</v>
+        <v>0.060924</v>
       </c>
       <c r="H5">
-        <v>0.521165</v>
+        <v>0.182772</v>
       </c>
       <c r="I5">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881355</v>
       </c>
       <c r="J5">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881354</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N5">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q5">
-        <v>3.894334236616667</v>
+        <v>1.616443609968</v>
       </c>
       <c r="R5">
-        <v>35.04900812955</v>
+        <v>14.547992489712</v>
       </c>
       <c r="S5">
-        <v>0.2904890163178055</v>
+        <v>0.191930450166807</v>
       </c>
       <c r="T5">
-        <v>0.2904890163178055</v>
+        <v>0.1919304501668069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1737216666666667</v>
+        <v>0.060924</v>
       </c>
       <c r="H6">
-        <v>0.521165</v>
+        <v>0.182772</v>
       </c>
       <c r="I6">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881355</v>
       </c>
       <c r="J6">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881354</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>50.345671</v>
       </c>
       <c r="O6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q6">
-        <v>2.915377958523889</v>
+        <v>1.022419886668</v>
       </c>
       <c r="R6">
-        <v>26.238401626715</v>
+        <v>9.201778980012</v>
       </c>
       <c r="S6">
-        <v>0.2174659964733732</v>
+        <v>0.12139830173944</v>
       </c>
       <c r="T6">
-        <v>0.2174659964733733</v>
+        <v>0.12139830173944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1737216666666667</v>
+        <v>0.060924</v>
       </c>
       <c r="H7">
-        <v>0.521165</v>
+        <v>0.182772</v>
       </c>
       <c r="I7">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881355</v>
       </c>
       <c r="J7">
-        <v>0.7283245314554752</v>
+        <v>0.4845827124881354</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N7">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q7">
-        <v>2.954302961672778</v>
+        <v>1.4423056374</v>
       </c>
       <c r="R7">
-        <v>26.588726655055</v>
+        <v>12.9807507366</v>
       </c>
       <c r="S7">
-        <v>0.2203695186642963</v>
+        <v>0.1712539605818885</v>
       </c>
       <c r="T7">
-        <v>0.2203695186642963</v>
+        <v>0.1712539605818885</v>
       </c>
     </row>
   </sheetData>
